--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Ntn4</t>
   </si>
   <si>
     <t>Unc5a</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.664730333333333</v>
+        <v>1.136976666666667</v>
       </c>
       <c r="H2">
-        <v>4.994191</v>
+        <v>3.41093</v>
       </c>
       <c r="I2">
-        <v>0.050289847855868</v>
+        <v>0.03386532673582325</v>
       </c>
       <c r="J2">
-        <v>0.050289847855868</v>
+        <v>0.03386532673582325</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.322965</v>
+        <v>1.294217333333333</v>
       </c>
       <c r="N2">
-        <v>6.968895</v>
+        <v>3.882652</v>
       </c>
       <c r="O2">
-        <v>0.2900587755589272</v>
+        <v>0.1864098899142058</v>
       </c>
       <c r="P2">
-        <v>0.2900587755589272</v>
+        <v>0.1864098899142058</v>
       </c>
       <c r="Q2">
-        <v>3.867110298771666</v>
+        <v>1.471494909595556</v>
       </c>
       <c r="R2">
-        <v>34.80399268894499</v>
+        <v>13.24345418636</v>
       </c>
       <c r="S2">
-        <v>0.01458701169211781</v>
+        <v>0.006312831828733424</v>
       </c>
       <c r="T2">
-        <v>0.01458701169211781</v>
+        <v>0.006312831828733424</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.664730333333333</v>
+        <v>1.136976666666667</v>
       </c>
       <c r="H3">
-        <v>4.994191</v>
+        <v>3.41093</v>
       </c>
       <c r="I3">
-        <v>0.050289847855868</v>
+        <v>0.03386532673582325</v>
       </c>
       <c r="J3">
-        <v>0.050289847855868</v>
+        <v>0.03386532673582325</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.879377</v>
       </c>
       <c r="O3">
-        <v>0.2030890289077955</v>
+        <v>0.2342636243010983</v>
       </c>
       <c r="P3">
-        <v>0.2030890289077955</v>
+        <v>0.2342636243010983</v>
       </c>
       <c r="Q3">
-        <v>2.707615633222999</v>
+        <v>1.84924593229</v>
       </c>
       <c r="R3">
-        <v>24.368540699007</v>
+        <v>16.64321339061</v>
       </c>
       <c r="S3">
-        <v>0.01021331636496902</v>
+        <v>0.007933414179274838</v>
       </c>
       <c r="T3">
-        <v>0.01021331636496902</v>
+        <v>0.007933414179274836</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.664730333333333</v>
+        <v>1.136976666666667</v>
       </c>
       <c r="H4">
-        <v>4.994191</v>
+        <v>3.41093</v>
       </c>
       <c r="I4">
-        <v>0.050289847855868</v>
+        <v>0.03386532673582325</v>
       </c>
       <c r="J4">
-        <v>0.050289847855868</v>
+        <v>0.03386532673582325</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.154986</v>
+        <v>3.488917666666667</v>
       </c>
       <c r="N4">
-        <v>9.464957999999999</v>
+        <v>10.466753</v>
       </c>
       <c r="O4">
-        <v>0.3939497048236015</v>
+        <v>0.5025189675740148</v>
       </c>
       <c r="P4">
-        <v>0.3939497048236015</v>
+        <v>0.5025189675740148</v>
       </c>
       <c r="Q4">
-        <v>5.252200895441999</v>
+        <v>3.966817978921112</v>
       </c>
       <c r="R4">
-        <v>47.26980805897799</v>
+        <v>35.70136181029</v>
       </c>
       <c r="S4">
-        <v>0.01981167071844303</v>
+        <v>0.01701796902784258</v>
       </c>
       <c r="T4">
-        <v>0.01981167071844303</v>
+        <v>0.01701796902784258</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.664730333333333</v>
+        <v>1.136976666666667</v>
       </c>
       <c r="H5">
-        <v>4.994191</v>
+        <v>3.41093</v>
       </c>
       <c r="I5">
-        <v>0.050289847855868</v>
+        <v>0.03386532673582325</v>
       </c>
       <c r="J5">
-        <v>0.050289847855868</v>
+        <v>0.03386532673582325</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.904191</v>
+        <v>0.5332636666666667</v>
       </c>
       <c r="N5">
-        <v>2.712573</v>
+        <v>1.599791</v>
       </c>
       <c r="O5">
-        <v>0.1129024907096758</v>
+        <v>0.07680751821068107</v>
       </c>
       <c r="P5">
-        <v>0.1129024907096758</v>
+        <v>0.07680751821068106</v>
       </c>
       <c r="Q5">
-        <v>1.505234184827</v>
+        <v>0.6063083461811112</v>
       </c>
       <c r="R5">
-        <v>13.547107663443</v>
+        <v>5.45677511563</v>
       </c>
       <c r="S5">
-        <v>0.005677849080338145</v>
+        <v>0.002601111699972409</v>
       </c>
       <c r="T5">
-        <v>0.005677849080338145</v>
+        <v>0.002601111699972409</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>36.619551</v>
       </c>
       <c r="I6">
-        <v>0.3687467396301421</v>
+        <v>0.3635762268748239</v>
       </c>
       <c r="J6">
-        <v>0.3687467396301421</v>
+        <v>0.3635762268748239</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.322965</v>
+        <v>1.294217333333333</v>
       </c>
       <c r="N6">
-        <v>6.968895</v>
+        <v>3.882652</v>
       </c>
       <c r="O6">
-        <v>0.2900587755589272</v>
+        <v>0.1864098899142058</v>
       </c>
       <c r="P6">
-        <v>0.2900587755589272</v>
+        <v>0.1864098899142058</v>
       </c>
       <c r="Q6">
-        <v>28.355311762905</v>
+        <v>15.797885881028</v>
       </c>
       <c r="R6">
-        <v>255.197805866145</v>
+        <v>142.180972929252</v>
       </c>
       <c r="S6">
-        <v>0.1069582277884656</v>
+        <v>0.06777420442715824</v>
       </c>
       <c r="T6">
-        <v>0.1069582277884656</v>
+        <v>0.06777420442715824</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>36.619551</v>
       </c>
       <c r="I7">
-        <v>0.3687467396301421</v>
+        <v>0.3635762268748239</v>
       </c>
       <c r="J7">
-        <v>0.3687467396301421</v>
+        <v>0.3635762268748239</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>4.879377</v>
       </c>
       <c r="O7">
-        <v>0.2030890289077955</v>
+        <v>0.2342636243010983</v>
       </c>
       <c r="P7">
-        <v>0.2030890289077955</v>
+        <v>0.2342636243010983</v>
       </c>
       <c r="Q7">
         <v>19.853399433303</v>
@@ -883,10 +883,10 @@
         <v>178.680594899727</v>
       </c>
       <c r="S7">
-        <v>0.07488841726440128</v>
+        <v>0.08517268461741462</v>
       </c>
       <c r="T7">
-        <v>0.07488841726440128</v>
+        <v>0.0851726846174146</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>36.619551</v>
       </c>
       <c r="I8">
-        <v>0.3687467396301421</v>
+        <v>0.3635762268748239</v>
       </c>
       <c r="J8">
-        <v>0.3687467396301421</v>
+        <v>0.3635762268748239</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.154986</v>
+        <v>3.488917666666667</v>
       </c>
       <c r="N8">
-        <v>9.464957999999999</v>
+        <v>10.466753</v>
       </c>
       <c r="O8">
-        <v>0.3939497048236015</v>
+        <v>0.5025189675740148</v>
       </c>
       <c r="P8">
-        <v>0.3939497048236015</v>
+        <v>0.5025189675740148</v>
       </c>
       <c r="Q8">
-        <v>38.51139024376199</v>
+        <v>42.587532809767</v>
       </c>
       <c r="R8">
-        <v>346.602512193858</v>
+        <v>383.287795287903</v>
       </c>
       <c r="S8">
-        <v>0.1452676692319599</v>
+        <v>0.1827039501635923</v>
       </c>
       <c r="T8">
-        <v>0.1452676692319599</v>
+        <v>0.1827039501635923</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>36.619551</v>
       </c>
       <c r="I9">
-        <v>0.3687467396301421</v>
+        <v>0.3635762268748239</v>
       </c>
       <c r="J9">
-        <v>0.3687467396301421</v>
+        <v>0.3635762268748239</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.904191</v>
+        <v>0.5332636666666667</v>
       </c>
       <c r="N9">
-        <v>2.712573</v>
+        <v>1.599791</v>
       </c>
       <c r="O9">
-        <v>0.1129024907096758</v>
+        <v>0.07680751821068107</v>
       </c>
       <c r="P9">
-        <v>0.1129024907096758</v>
+        <v>0.07680751821068106</v>
       </c>
       <c r="Q9">
-        <v>11.037022812747</v>
+        <v>6.509292012649</v>
       </c>
       <c r="R9">
-        <v>99.333205314723</v>
+        <v>58.583628113841</v>
       </c>
       <c r="S9">
-        <v>0.04163242534531535</v>
+        <v>0.02792538766665875</v>
       </c>
       <c r="T9">
-        <v>0.04163242534531535</v>
+        <v>0.02792538766665875</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.23146433333333</v>
+        <v>20.10609633333333</v>
       </c>
       <c r="H10">
-        <v>57.694393</v>
+        <v>60.318289</v>
       </c>
       <c r="I10">
-        <v>0.5809634125139899</v>
+        <v>0.5988685095064435</v>
       </c>
       <c r="J10">
-        <v>0.58096341251399</v>
+        <v>0.5988685095064435</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.322965</v>
+        <v>1.294217333333333</v>
       </c>
       <c r="N10">
-        <v>6.968895</v>
+        <v>3.882652</v>
       </c>
       <c r="O10">
-        <v>0.2900587755589272</v>
+        <v>0.1864098899142058</v>
       </c>
       <c r="P10">
-        <v>0.2900587755589272</v>
+        <v>0.1864098899142058</v>
       </c>
       <c r="Q10">
-        <v>44.67401854508166</v>
+        <v>26.02165838026978</v>
       </c>
       <c r="R10">
-        <v>402.066166905735</v>
+        <v>234.194925422428</v>
       </c>
       <c r="S10">
-        <v>0.1685135360783439</v>
+        <v>0.1116350129301807</v>
       </c>
       <c r="T10">
-        <v>0.1685135360783439</v>
+        <v>0.1116350129301807</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.23146433333333</v>
+        <v>20.10609633333333</v>
       </c>
       <c r="H11">
-        <v>57.694393</v>
+        <v>60.318289</v>
       </c>
       <c r="I11">
-        <v>0.5809634125139899</v>
+        <v>0.5988685095064435</v>
       </c>
       <c r="J11">
-        <v>0.58096341251399</v>
+        <v>0.5988685095064435</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.879377</v>
       </c>
       <c r="O11">
-        <v>0.2030890289077955</v>
+        <v>0.2342636243010983</v>
       </c>
       <c r="P11">
-        <v>0.2030890289077955</v>
+        <v>0.2342636243010983</v>
       </c>
       <c r="Q11">
-        <v>31.279188248129</v>
+        <v>32.701741336217</v>
       </c>
       <c r="R11">
-        <v>281.512694233161</v>
+        <v>294.315672025953</v>
       </c>
       <c r="S11">
-        <v>0.1179872952784252</v>
+        <v>0.1402931075167762</v>
       </c>
       <c r="T11">
-        <v>0.1179872952784252</v>
+        <v>0.1402931075167762</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.23146433333333</v>
+        <v>20.10609633333333</v>
       </c>
       <c r="H12">
-        <v>57.694393</v>
+        <v>60.318289</v>
       </c>
       <c r="I12">
-        <v>0.5809634125139899</v>
+        <v>0.5988685095064435</v>
       </c>
       <c r="J12">
-        <v>0.58096341251399</v>
+        <v>0.5988685095064435</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.154986</v>
+        <v>3.488917666666667</v>
       </c>
       <c r="N12">
-        <v>9.464957999999999</v>
+        <v>10.466753</v>
       </c>
       <c r="O12">
-        <v>0.3939497048236015</v>
+        <v>0.5025189675740148</v>
       </c>
       <c r="P12">
-        <v>0.3939497048236015</v>
+        <v>0.5025189675740148</v>
       </c>
       <c r="Q12">
-        <v>60.67500073116599</v>
+        <v>70.14851470506856</v>
       </c>
       <c r="R12">
-        <v>546.0750065804939</v>
+        <v>631.3366323456171</v>
       </c>
       <c r="S12">
-        <v>0.2288703648731986</v>
+        <v>0.3009427851097671</v>
       </c>
       <c r="T12">
-        <v>0.2288703648731986</v>
+        <v>0.3009427851097671</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>20.10609633333333</v>
+      </c>
+      <c r="H13">
+        <v>60.318289</v>
+      </c>
+      <c r="I13">
+        <v>0.5988685095064435</v>
+      </c>
+      <c r="J13">
+        <v>0.5988685095064435</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5332636666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.599791</v>
+      </c>
+      <c r="O13">
+        <v>0.07680751821068107</v>
+      </c>
+      <c r="P13">
+        <v>0.07680751821068106</v>
+      </c>
+      <c r="Q13">
+        <v>10.72185065306656</v>
+      </c>
+      <c r="R13">
+        <v>96.496655877599</v>
+      </c>
+      <c r="S13">
+        <v>0.04599760394971959</v>
+      </c>
+      <c r="T13">
+        <v>0.04599760394971959</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>19.23146433333333</v>
-      </c>
-      <c r="H13">
-        <v>57.694393</v>
-      </c>
-      <c r="I13">
-        <v>0.5809634125139899</v>
-      </c>
-      <c r="J13">
-        <v>0.58096341251399</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.904191</v>
-      </c>
-      <c r="N13">
-        <v>2.712573</v>
-      </c>
-      <c r="O13">
-        <v>0.1129024907096758</v>
-      </c>
-      <c r="P13">
-        <v>0.1129024907096758</v>
-      </c>
-      <c r="Q13">
-        <v>17.388916967021</v>
-      </c>
-      <c r="R13">
-        <v>156.500252703189</v>
-      </c>
-      <c r="S13">
-        <v>0.06559221628402227</v>
-      </c>
-      <c r="T13">
-        <v>0.06559221628402229</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.123884</v>
+      </c>
+      <c r="H14">
+        <v>0.371652</v>
+      </c>
+      <c r="I14">
+        <v>0.003689936882909407</v>
+      </c>
+      <c r="J14">
+        <v>0.003689936882909406</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.294217333333333</v>
+      </c>
+      <c r="N14">
+        <v>3.882652</v>
+      </c>
+      <c r="O14">
+        <v>0.1864098899142058</v>
+      </c>
+      <c r="P14">
+        <v>0.1864098899142058</v>
+      </c>
+      <c r="Q14">
+        <v>0.1603328201226667</v>
+      </c>
+      <c r="R14">
+        <v>1.442995381104</v>
+      </c>
+      <c r="S14">
+        <v>0.0006878407281335103</v>
+      </c>
+      <c r="T14">
+        <v>0.0006878407281335102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.123884</v>
+      </c>
+      <c r="H15">
+        <v>0.371652</v>
+      </c>
+      <c r="I15">
+        <v>0.003689936882909407</v>
+      </c>
+      <c r="J15">
+        <v>0.003689936882909406</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.626459</v>
+      </c>
+      <c r="N15">
+        <v>4.879377</v>
+      </c>
+      <c r="O15">
+        <v>0.2342636243010983</v>
+      </c>
+      <c r="P15">
+        <v>0.2342636243010983</v>
+      </c>
+      <c r="Q15">
+        <v>0.201492246756</v>
+      </c>
+      <c r="R15">
+        <v>1.813430220804</v>
+      </c>
+      <c r="S15">
+        <v>0.0008644179876326549</v>
+      </c>
+      <c r="T15">
+        <v>0.0008644179876326547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.123884</v>
+      </c>
+      <c r="H16">
+        <v>0.371652</v>
+      </c>
+      <c r="I16">
+        <v>0.003689936882909407</v>
+      </c>
+      <c r="J16">
+        <v>0.003689936882909406</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.488917666666667</v>
+      </c>
+      <c r="N16">
+        <v>10.466753</v>
+      </c>
+      <c r="O16">
+        <v>0.5025189675740148</v>
+      </c>
+      <c r="P16">
+        <v>0.5025189675740148</v>
+      </c>
+      <c r="Q16">
+        <v>0.4322210762173334</v>
+      </c>
+      <c r="R16">
+        <v>3.889989685956</v>
+      </c>
+      <c r="S16">
+        <v>0.001854263272812913</v>
+      </c>
+      <c r="T16">
+        <v>0.001854263272812913</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.123884</v>
+      </c>
+      <c r="H17">
+        <v>0.371652</v>
+      </c>
+      <c r="I17">
+        <v>0.003689936882909407</v>
+      </c>
+      <c r="J17">
+        <v>0.003689936882909406</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5332636666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.599791</v>
+      </c>
+      <c r="O17">
+        <v>0.07680751821068107</v>
+      </c>
+      <c r="P17">
+        <v>0.07680751821068106</v>
+      </c>
+      <c r="Q17">
+        <v>0.06606283608133333</v>
+      </c>
+      <c r="R17">
+        <v>0.594565524732</v>
+      </c>
+      <c r="S17">
+        <v>0.000283414894330328</v>
+      </c>
+      <c r="T17">
+        <v>0.0002834148943303279</v>
       </c>
     </row>
   </sheetData>
